--- a/Code/Results/Cases/Case_6_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_34/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.98358054730005</v>
+        <v>22.19264127298635</v>
       </c>
       <c r="C2">
-        <v>20.33193626604448</v>
+        <v>15.75494061271699</v>
       </c>
       <c r="D2">
-        <v>2.597342178272195</v>
+        <v>3.210256606691849</v>
       </c>
       <c r="E2">
-        <v>30.43379218429154</v>
+        <v>30.14026930417094</v>
       </c>
       <c r="F2">
-        <v>32.47661034114981</v>
+        <v>20.13146211018717</v>
       </c>
       <c r="G2">
-        <v>2.024274650925221</v>
+        <v>2.041467443599555</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.56462574052953</v>
+        <v>10.79793041346813</v>
       </c>
       <c r="O2">
-        <v>24.90232442063045</v>
+        <v>15.2447625721885</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.04118649004977</v>
+        <v>20.71562228690579</v>
       </c>
       <c r="C3">
-        <v>18.89604857227337</v>
+        <v>14.80248896446853</v>
       </c>
       <c r="D3">
-        <v>2.717401637049007</v>
+        <v>3.135991522279772</v>
       </c>
       <c r="E3">
-        <v>28.1149608269274</v>
+        <v>27.93290849918413</v>
       </c>
       <c r="F3">
-        <v>30.55431956232758</v>
+        <v>19.15584597541385</v>
       </c>
       <c r="G3">
-        <v>2.036377899709037</v>
+        <v>2.048126427570985</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>10.88662939905178</v>
+        <v>10.95047900607175</v>
       </c>
       <c r="O3">
-        <v>23.56290937009182</v>
+        <v>14.69692446600516</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.79049323284247</v>
+        <v>19.75727601129737</v>
       </c>
       <c r="C4">
-        <v>17.97264216763061</v>
+        <v>14.18717326213464</v>
       </c>
       <c r="D4">
-        <v>2.792891617198996</v>
+        <v>3.08919629956481</v>
       </c>
       <c r="E4">
-        <v>26.63719043333777</v>
+        <v>26.51521807522412</v>
       </c>
       <c r="F4">
-        <v>29.36532998453891</v>
+        <v>18.55774255921811</v>
       </c>
       <c r="G4">
-        <v>2.043920820802304</v>
+        <v>2.052319188319746</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.08577215519103</v>
+        <v>11.04766722466025</v>
       </c>
       <c r="O4">
-        <v>22.74420093508528</v>
+        <v>14.37180061486598</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.26589741351447</v>
+        <v>19.3537181742894</v>
       </c>
       <c r="C5">
-        <v>17.58559077375133</v>
+        <v>13.92878319206443</v>
       </c>
       <c r="D5">
-        <v>2.824063859206412</v>
+        <v>3.069845076480352</v>
       </c>
       <c r="E5">
-        <v>26.02071172758802</v>
+        <v>25.92144216777629</v>
       </c>
       <c r="F5">
-        <v>28.8788436422596</v>
+        <v>18.31455549796463</v>
       </c>
       <c r="G5">
-        <v>2.047027134394599</v>
+        <v>2.054055201869201</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.1673841238251</v>
+        <v>11.08815240886008</v>
       </c>
       <c r="O5">
-        <v>22.41164811524492</v>
+        <v>14.24223881449349</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.17787795065884</v>
+        <v>19.2859187481976</v>
       </c>
       <c r="C6">
-        <v>17.5206646570573</v>
+        <v>13.88541729486414</v>
       </c>
       <c r="D6">
-        <v>2.829263953629321</v>
+        <v>3.066615381740952</v>
       </c>
       <c r="E6">
-        <v>25.91746476471859</v>
+        <v>25.82186595999729</v>
       </c>
       <c r="F6">
-        <v>28.79795378506759</v>
+        <v>18.27421738439938</v>
       </c>
       <c r="G6">
-        <v>2.047545021117992</v>
+        <v>2.054345157155113</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.1809662447819</v>
+        <v>11.09492796858759</v>
       </c>
       <c r="O6">
-        <v>22.35649914979978</v>
+        <v>14.22090498184743</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.78347920937417</v>
+        <v>19.75188633031431</v>
       </c>
       <c r="C7">
-        <v>17.96746612296085</v>
+        <v>14.18371942056971</v>
       </c>
       <c r="D7">
-        <v>2.793310395406542</v>
+        <v>3.088936437112777</v>
       </c>
       <c r="E7">
-        <v>26.62893505274672</v>
+        <v>26.50727569052539</v>
       </c>
       <c r="F7">
-        <v>29.35877660503772</v>
+        <v>18.55446020132923</v>
       </c>
       <c r="G7">
-        <v>2.043962576413761</v>
+        <v>2.052342488155177</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.08687081593647</v>
+        <v>11.04820966444023</v>
       </c>
       <c r="O7">
-        <v>22.73971138548707</v>
+        <v>14.37004130834958</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.32568451356742</v>
+        <v>21.69398879436138</v>
       </c>
       <c r="C8">
-        <v>19.8453491626842</v>
+        <v>15.43287618750728</v>
       </c>
       <c r="D8">
-        <v>2.638343137894991</v>
+        <v>3.18490925641766</v>
       </c>
       <c r="E8">
-        <v>29.64502168762461</v>
+        <v>29.39188079390492</v>
       </c>
       <c r="F8">
-        <v>31.81569504332025</v>
+        <v>19.79504860274865</v>
       </c>
       <c r="G8">
-        <v>2.028427568464176</v>
+        <v>2.043742631441911</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.67541851315099</v>
+        <v>10.84979416253855</v>
       </c>
       <c r="O8">
-        <v>24.43978457618412</v>
+        <v>15.05359171153074</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.86696388873424</v>
+        <v>25.09859867766054</v>
       </c>
       <c r="C9">
-        <v>23.20957217529628</v>
+        <v>17.6403679686246</v>
       </c>
       <c r="D9">
-        <v>2.35139789581407</v>
+        <v>3.362854647185698</v>
       </c>
       <c r="E9">
-        <v>35.16740931464698</v>
+        <v>34.57219233030288</v>
       </c>
       <c r="F9">
-        <v>36.56974213965515</v>
+        <v>22.22421392895321</v>
       </c>
       <c r="G9">
-        <v>1.998615917208358</v>
+        <v>2.027642982253848</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.874884378766884</v>
+        <v>10.48898800501528</v>
       </c>
       <c r="O9">
-        <v>27.80220982421648</v>
+        <v>16.47930544259558</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.95945381558752</v>
+        <v>27.36057158935538</v>
       </c>
       <c r="C10">
-        <v>25.50856389702273</v>
+        <v>19.11602345375609</v>
       </c>
       <c r="D10">
-        <v>2.15798762009284</v>
+        <v>3.486410855448013</v>
       </c>
       <c r="E10">
-        <v>39.0459291671097</v>
+        <v>38.11616967421757</v>
       </c>
       <c r="F10">
-        <v>40.32941238820356</v>
+        <v>23.99613760866688</v>
       </c>
       <c r="G10">
-        <v>1.97673001587075</v>
+        <v>2.016186253230546</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>9.282641199700123</v>
+        <v>10.24175541552397</v>
       </c>
       <c r="O10">
-        <v>30.66954833929836</v>
+        <v>17.5745902721662</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.32052685329209</v>
+        <v>28.33930732091953</v>
       </c>
       <c r="C11">
-        <v>26.52280822240143</v>
+        <v>19.75625876336815</v>
       </c>
       <c r="D11">
-        <v>2.076759476304157</v>
+        <v>3.540892619515687</v>
       </c>
       <c r="E11">
-        <v>40.78867141383149</v>
+        <v>39.67876476368763</v>
       </c>
       <c r="F11">
-        <v>42.02424291408698</v>
+        <v>24.85185686719641</v>
       </c>
       <c r="G11">
-        <v>1.966671145760279</v>
+        <v>2.011031241964355</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>9.010254260123515</v>
+        <v>10.13334547959639</v>
       </c>
       <c r="O11">
-        <v>31.9889205301231</v>
+        <v>18.08283437009755</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.83008654861094</v>
+        <v>28.7028574816673</v>
       </c>
       <c r="C12">
-        <v>26.90293961918471</v>
+        <v>19.99430993698489</v>
       </c>
       <c r="D12">
-        <v>2.0473816139625</v>
+        <v>3.561263284214063</v>
       </c>
       <c r="E12">
-        <v>41.44731216584701</v>
+        <v>40.26404191870724</v>
       </c>
       <c r="F12">
-        <v>42.66485492385633</v>
+        <v>25.19955050863991</v>
       </c>
       <c r="G12">
-        <v>1.96283630411645</v>
+        <v>2.009085094207409</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>8.90648004271595</v>
+        <v>10.0928973005724</v>
       </c>
       <c r="O12">
-        <v>32.48781000918798</v>
+        <v>18.28095518276673</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.72059085800212</v>
+        <v>28.62487260549137</v>
       </c>
       <c r="C13">
-        <v>26.8212359383123</v>
+        <v>19.94323535843081</v>
       </c>
       <c r="D13">
-        <v>2.053638796946801</v>
+        <v>3.556887860920842</v>
       </c>
       <c r="E13">
-        <v>41.30548654255723</v>
+        <v>40.13826669287756</v>
       </c>
       <c r="F13">
-        <v>42.5269205942346</v>
+        <v>25.12479355254085</v>
       </c>
       <c r="G13">
-        <v>1.963663551007373</v>
+        <v>2.009504005686672</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>8.92886105055301</v>
+        <v>10.10158128820876</v>
       </c>
       <c r="O13">
-        <v>32.38038120212845</v>
+        <v>18.2349110239473</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.36256121739242</v>
+        <v>28.36935771110903</v>
       </c>
       <c r="C14">
-        <v>26.55415697688928</v>
+        <v>19.77593092392334</v>
       </c>
       <c r="D14">
-        <v>2.074311883293468</v>
+        <v>3.542573811172715</v>
       </c>
       <c r="E14">
-        <v>40.84287236146491</v>
+        <v>39.72704075529471</v>
       </c>
       <c r="F14">
-        <v>42.07696317102064</v>
+        <v>24.88051842802208</v>
       </c>
       <c r="G14">
-        <v>1.966356238334136</v>
+        <v>2.010871025717808</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>9.001730505628288</v>
+        <v>10.13000553871173</v>
       </c>
       <c r="O14">
-        <v>32.02997322944893</v>
+        <v>18.09875772818931</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.14251983933285</v>
+        <v>28.21193067455015</v>
       </c>
       <c r="C15">
-        <v>26.39007001904611</v>
+        <v>19.6728825952783</v>
       </c>
       <c r="D15">
-        <v>2.087169767213398</v>
+        <v>3.533771786796854</v>
       </c>
       <c r="E15">
-        <v>40.55939945792446</v>
+        <v>39.47433573493107</v>
       </c>
       <c r="F15">
-        <v>41.80123294075828</v>
+        <v>24.73052394456789</v>
       </c>
       <c r="G15">
-        <v>1.968001867718788</v>
+        <v>2.011709068805847</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>9.046277072988973</v>
+        <v>10.14749559824521</v>
       </c>
       <c r="O15">
-        <v>31.81527325755758</v>
+        <v>18.01554819484171</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.86964352540097</v>
+        <v>27.29561026853984</v>
       </c>
       <c r="C16">
-        <v>25.44169388355119</v>
+        <v>19.07356363319365</v>
       </c>
       <c r="D16">
-        <v>2.163463311730667</v>
+        <v>3.482814548733571</v>
       </c>
       <c r="E16">
-        <v>38.93174776734961</v>
+        <v>38.01310936055111</v>
       </c>
       <c r="F16">
-        <v>40.21842255754576</v>
+        <v>23.94362782851246</v>
       </c>
       <c r="G16">
-        <v>1.977384427793624</v>
+        <v>2.016524103278525</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>9.300366050625684</v>
+        <v>10.24892360045789</v>
       </c>
       <c r="O16">
-        <v>30.58316973508171</v>
+        <v>17.54157586576341</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.07754151397037</v>
+        <v>26.72070984465514</v>
       </c>
       <c r="C17">
-        <v>24.85219961006885</v>
+        <v>18.69799515234109</v>
       </c>
       <c r="D17">
-        <v>2.212238964648249</v>
+        <v>3.451102957354149</v>
       </c>
       <c r="E17">
-        <v>37.92886872068507</v>
+        <v>37.10445661823945</v>
       </c>
       <c r="F17">
-        <v>39.24411217104628</v>
+        <v>23.48301701898591</v>
       </c>
       <c r="G17">
-        <v>1.983106830617197</v>
+        <v>2.019491001773645</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>9.45534630642579</v>
+        <v>10.31219923470603</v>
       </c>
       <c r="O17">
-        <v>29.82501466654012</v>
+        <v>17.25335974989521</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.61759210655897</v>
+        <v>26.38530304644786</v>
       </c>
       <c r="C18">
-        <v>24.51012386392556</v>
+        <v>18.47905035823475</v>
       </c>
       <c r="D18">
-        <v>2.240896573507826</v>
+        <v>3.432701616211586</v>
       </c>
       <c r="E18">
-        <v>37.34987616131956</v>
+        <v>36.57711119459213</v>
       </c>
       <c r="F18">
-        <v>38.68218141800929</v>
+        <v>23.21772847747959</v>
       </c>
       <c r="G18">
-        <v>1.986389292897628</v>
+        <v>2.021202967964008</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>9.544220523562538</v>
+        <v>10.3489741390014</v>
       </c>
       <c r="O18">
-        <v>29.38783189706104</v>
+        <v>17.08852383268887</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.46109347691109</v>
+        <v>26.27092176708846</v>
       </c>
       <c r="C19">
-        <v>24.39376874498828</v>
+        <v>18.40441463194838</v>
       </c>
       <c r="D19">
-        <v>2.250693250859215</v>
+        <v>3.426443871834083</v>
       </c>
       <c r="E19">
-        <v>37.15341877480104</v>
+        <v>36.39773227048141</v>
       </c>
       <c r="F19">
-        <v>38.49163083249846</v>
+        <v>23.12784624970653</v>
       </c>
       <c r="G19">
-        <v>1.98749944748086</v>
+        <v>2.021783615571429</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>9.574271716083897</v>
+        <v>10.36149025628895</v>
       </c>
       <c r="O19">
-        <v>29.23959538440842</v>
+        <v>17.03287487954334</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.16230784279322</v>
+        <v>26.78239843584876</v>
       </c>
       <c r="C20">
-        <v>24.91526026264637</v>
+        <v>18.73827759516968</v>
       </c>
       <c r="D20">
-        <v>2.206981844976312</v>
+        <v>3.454495537191821</v>
       </c>
       <c r="E20">
-        <v>38.03583890580746</v>
+        <v>37.201667285566</v>
       </c>
       <c r="F20">
-        <v>39.34798121833686</v>
+        <v>23.5320870785456</v>
       </c>
       <c r="G20">
-        <v>1.982498666095633</v>
+        <v>2.019174617930706</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>9.438877318380456</v>
+        <v>10.30542392325421</v>
       </c>
       <c r="O20">
-        <v>29.9058310605941</v>
+        <v>17.28394382260901</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.46787548228316</v>
+        <v>28.44459939829112</v>
       </c>
       <c r="C21">
-        <v>26.63270611673338</v>
+        <v>19.82519082833575</v>
       </c>
       <c r="D21">
-        <v>2.068198067122569</v>
+        <v>3.546785353566313</v>
       </c>
       <c r="E21">
-        <v>40.97877211328896</v>
+        <v>39.847996742352</v>
       </c>
       <c r="F21">
-        <v>42.20914895349851</v>
+        <v>24.9523445628292</v>
       </c>
       <c r="G21">
-        <v>1.965566128769553</v>
+        <v>2.010469356442728</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>8.980345731819254</v>
+        <v>10.12164006062465</v>
       </c>
       <c r="O21">
-        <v>32.13290819038097</v>
+        <v>18.13870995288072</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.94104775423691</v>
+        <v>29.48978107596357</v>
       </c>
       <c r="C22">
-        <v>27.73255768572167</v>
+        <v>20.50999714351109</v>
       </c>
       <c r="D22">
-        <v>1.985875882062863</v>
+        <v>3.605579527018719</v>
       </c>
       <c r="E22">
-        <v>42.89574599991799</v>
+        <v>41.54035480854116</v>
       </c>
       <c r="F22">
-        <v>44.07289421080906</v>
+        <v>25.95917493053298</v>
       </c>
       <c r="G22">
-        <v>1.954342703712818</v>
+        <v>2.004813381078018</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>8.676899620603596</v>
+        <v>10.00506167847011</v>
       </c>
       <c r="O22">
-        <v>33.58477155221811</v>
+        <v>18.85687950016453</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.15758942527304</v>
+        <v>28.93566090356409</v>
       </c>
       <c r="C23">
-        <v>27.14738256756175</v>
+        <v>20.14681293317535</v>
       </c>
       <c r="D23">
-        <v>2.028861759533627</v>
+        <v>3.574343019785856</v>
       </c>
       <c r="E23">
-        <v>41.87249493173972</v>
+        <v>40.64026133207673</v>
       </c>
       <c r="F23">
-        <v>43.07832196383939</v>
+        <v>25.42327970435672</v>
       </c>
       <c r="G23">
-        <v>1.960351473582147</v>
+        <v>2.00782982584614</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>8.83927283626779</v>
+        <v>10.06695035684414</v>
       </c>
       <c r="O23">
-        <v>32.80986769064499</v>
+        <v>18.45052964091207</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.12399923995913</v>
+        <v>26.75452426268147</v>
       </c>
       <c r="C24">
-        <v>24.88676045178681</v>
+        <v>18.72007533170808</v>
       </c>
       <c r="D24">
-        <v>2.209356699003451</v>
+        <v>3.452962280172692</v>
       </c>
       <c r="E24">
-        <v>37.98748536652182</v>
+        <v>37.15773380797086</v>
       </c>
       <c r="F24">
-        <v>39.30102766200471</v>
+        <v>23.50990398965572</v>
       </c>
       <c r="G24">
-        <v>1.982773639599663</v>
+        <v>2.019317635414159</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>9.44632363706096</v>
+        <v>10.30848580684202</v>
       </c>
       <c r="O24">
-        <v>29.869298109838</v>
+        <v>17.27011407387025</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.68342616894207</v>
+        <v>24.22013252131998</v>
       </c>
       <c r="C25">
-        <v>22.33152896859778</v>
+        <v>17.06902418366736</v>
       </c>
       <c r="D25">
-        <v>2.42667609233345</v>
+        <v>3.315914909287522</v>
       </c>
       <c r="E25">
-        <v>33.7098344257168</v>
+        <v>33.21902572473957</v>
       </c>
       <c r="F25">
-        <v>35.28607136987235</v>
+        <v>21.5687573508746</v>
       </c>
       <c r="G25">
-        <v>2.006646600954067</v>
+        <v>2.03192570320245</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.09153534378733</v>
+        <v>10.5835138854558</v>
       </c>
       <c r="O25">
-        <v>26.88913302329189</v>
+        <v>16.0849836657675</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_34/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,43 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.19264127298635</v>
+        <v>20.04676894542832</v>
       </c>
       <c r="C2">
-        <v>15.75494061271699</v>
+        <v>16.42935056658225</v>
       </c>
       <c r="D2">
-        <v>3.210256606691849</v>
+        <v>4.077515814508895</v>
       </c>
       <c r="E2">
-        <v>30.14026930417094</v>
+        <v>29.96184337714271</v>
       </c>
       <c r="F2">
-        <v>20.13146211018717</v>
+        <v>16.45632338713908</v>
       </c>
       <c r="G2">
-        <v>2.041467443599555</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>20.53830510774155</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.913585001058268</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.455948674078476</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.35363558474045</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,45 +460,48 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.79793041346813</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>15.2447625721885</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>11.71624432591529</v>
+      </c>
+      <c r="Q2">
+        <v>12.33790569869499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.71562228690579</v>
+        <v>18.75956069352106</v>
       </c>
       <c r="C3">
-        <v>14.80248896446853</v>
+        <v>15.52531134603612</v>
       </c>
       <c r="D3">
-        <v>3.135991522279772</v>
+        <v>3.893951686666036</v>
       </c>
       <c r="E3">
-        <v>27.93290849918413</v>
+        <v>27.80459259024933</v>
       </c>
       <c r="F3">
-        <v>19.15584597541385</v>
+        <v>15.78809596860186</v>
       </c>
       <c r="G3">
-        <v>2.048126427570985</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>19.50488676552758</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.753239851570229</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.407847187566667</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.4818935864944</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,45 +510,48 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>10.95047900607175</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>14.69692446600516</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>11.72538237876372</v>
+      </c>
+      <c r="Q3">
+        <v>12.04706121942293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.75727601129737</v>
+        <v>17.92017685747314</v>
       </c>
       <c r="C4">
-        <v>14.18717326213464</v>
+        <v>14.94615492360995</v>
       </c>
       <c r="D4">
-        <v>3.08919629956481</v>
+        <v>3.776503624679727</v>
       </c>
       <c r="E4">
-        <v>26.51521807522412</v>
+        <v>26.41479008159449</v>
       </c>
       <c r="F4">
-        <v>18.55774255921811</v>
+        <v>15.37641498600383</v>
       </c>
       <c r="G4">
-        <v>2.052319188319746</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>18.8614461888114</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.652078497919896</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.382926109188571</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.56744016470202</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,45 +560,48 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.04766722466025</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>14.37180061486598</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>11.73438668393752</v>
+      </c>
+      <c r="Q4">
+        <v>11.87506898108446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.3537181742894</v>
+        <v>17.56104265663348</v>
       </c>
       <c r="C5">
-        <v>13.92878319206443</v>
+        <v>14.71305742091377</v>
       </c>
       <c r="D5">
-        <v>3.069845076480352</v>
+        <v>3.728745137409476</v>
       </c>
       <c r="E5">
-        <v>25.92144216777629</v>
+        <v>25.83167774237769</v>
       </c>
       <c r="F5">
-        <v>18.31455549796463</v>
+        <v>15.20211999419559</v>
       </c>
       <c r="G5">
-        <v>2.054055201869201</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>18.5853824616794</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.610273813512781</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.371957539602664</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10.59956642585392</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,45 +610,48 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.08815240886008</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>14.24223881449349</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>11.74024971494404</v>
+      </c>
+      <c r="Q5">
+        <v>11.80163655743909</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.2859187481976</v>
+        <v>17.49487753403015</v>
       </c>
       <c r="C6">
-        <v>13.88541729486414</v>
+        <v>14.6848602361686</v>
       </c>
       <c r="D6">
-        <v>3.066615381740952</v>
+        <v>3.722288581031667</v>
       </c>
       <c r="E6">
-        <v>25.82186595999729</v>
+        <v>25.73374724130185</v>
       </c>
       <c r="F6">
-        <v>18.27421738439938</v>
+        <v>15.165311476841</v>
       </c>
       <c r="G6">
-        <v>2.054345157155113</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>18.52477735666249</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.603589937257654</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.367830765428026</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10.59967542444645</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,45 +660,48 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.09492796858759</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>14.22090498184743</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>11.74294123740636</v>
+      </c>
+      <c r="Q6">
+        <v>11.78338259094537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.75188633031431</v>
+        <v>17.89994837693169</v>
       </c>
       <c r="C7">
-        <v>14.18371942056971</v>
+        <v>14.97215790777952</v>
       </c>
       <c r="D7">
-        <v>3.088936437112777</v>
+        <v>3.780020712339585</v>
       </c>
       <c r="E7">
-        <v>26.50727569052539</v>
+        <v>26.40674478075854</v>
       </c>
       <c r="F7">
-        <v>18.55446020132923</v>
+        <v>15.35286057037281</v>
       </c>
       <c r="G7">
-        <v>2.052342488155177</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>18.81836563414144</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.652105564765858</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.376306300806696</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.55328190196248</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,45 +710,48 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.04820966444023</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>14.37004130834958</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>11.73908313869783</v>
+      </c>
+      <c r="Q7">
+        <v>11.85735525806304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.69398879436138</v>
+        <v>19.5942054759526</v>
       </c>
       <c r="C8">
-        <v>15.43287618750728</v>
+        <v>16.15883549796745</v>
       </c>
       <c r="D8">
-        <v>3.18490925641766</v>
+        <v>4.020473611488384</v>
       </c>
       <c r="E8">
-        <v>29.39188079390492</v>
+        <v>29.23104329566917</v>
       </c>
       <c r="F8">
-        <v>19.79504860274865</v>
+        <v>16.19963020885859</v>
       </c>
       <c r="G8">
-        <v>2.043742631441911</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>20.13506683220665</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.859385523275481</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.42989845985195</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.37687686895091</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,45 +760,48 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.84979416253855</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>15.05359171153074</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>11.72507374174335</v>
+      </c>
+      <c r="Q8">
+        <v>12.21475991386147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.09859867766054</v>
+        <v>22.55355290774927</v>
       </c>
       <c r="C9">
-        <v>17.6403679686246</v>
+        <v>18.24476251921329</v>
       </c>
       <c r="D9">
-        <v>3.362854647185698</v>
+        <v>4.446209173056231</v>
       </c>
       <c r="E9">
-        <v>34.57219233030288</v>
+        <v>34.26567104776513</v>
       </c>
       <c r="F9">
-        <v>22.22421392895321</v>
+        <v>17.87506025227174</v>
       </c>
       <c r="G9">
-        <v>2.027642982253848</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>22.69764618913965</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>4.244899128415517</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.584527613594375</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>10.11576420887411</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,45 +810,48 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.48898800501528</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>16.47930544259558</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>11.71660526273545</v>
+      </c>
+      <c r="Q9">
+        <v>12.99500854835422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.36057158935538</v>
+        <v>24.4876857399625</v>
       </c>
       <c r="C10">
-        <v>19.11602345375609</v>
+        <v>19.66937762387156</v>
       </c>
       <c r="D10">
-        <v>3.486410855448013</v>
+        <v>4.735792686973982</v>
       </c>
       <c r="E10">
-        <v>38.11616967421757</v>
+        <v>37.67709858220457</v>
       </c>
       <c r="F10">
-        <v>23.99613760866688</v>
+        <v>19.07379140841475</v>
       </c>
       <c r="G10">
-        <v>2.016186253230546</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>24.49943393675731</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.517578600284078</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.720178705183467</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>9.958639564405885</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,45 +860,48 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.24175541552397</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>17.5745902721662</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>11.7311588871541</v>
+      </c>
+      <c r="Q10">
+        <v>13.58922675813886</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.33930732091953</v>
+        <v>25.29920019313271</v>
       </c>
       <c r="C11">
-        <v>19.75625876336815</v>
+        <v>20.32736016069109</v>
       </c>
       <c r="D11">
-        <v>3.540892619515687</v>
+        <v>4.867375803778611</v>
       </c>
       <c r="E11">
-        <v>39.67876476368763</v>
+        <v>39.17101473391876</v>
       </c>
       <c r="F11">
-        <v>24.85185686719641</v>
+        <v>19.5853066595041</v>
       </c>
       <c r="G11">
-        <v>2.011031241964355</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>25.25547132619416</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.64137989459086</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.777791088774381</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>9.872958433320136</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,45 +910,48 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.13334547959639</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>18.08283437009755</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>11.75084458574302</v>
+      </c>
+      <c r="Q11">
+        <v>13.84199643083044</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.7028574816673</v>
+        <v>25.60948739316346</v>
       </c>
       <c r="C12">
-        <v>19.99430993698489</v>
+        <v>20.55289671413194</v>
       </c>
       <c r="D12">
-        <v>3.561263284214063</v>
+        <v>4.913375685835986</v>
       </c>
       <c r="E12">
-        <v>40.26404191870724</v>
+        <v>39.72918690779316</v>
       </c>
       <c r="F12">
-        <v>25.19955050863991</v>
+        <v>19.79294309891714</v>
       </c>
       <c r="G12">
-        <v>2.009085094207409</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>25.56604249369837</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.687119578292461</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.805834713772534</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>9.855411647413801</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,45 +960,48 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.0928973005724</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>18.28095518276673</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>11.75430777684966</v>
+      </c>
+      <c r="Q12">
+        <v>13.95124925598268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.62487260549137</v>
+        <v>25.54495576329541</v>
       </c>
       <c r="C13">
-        <v>19.94323535843081</v>
+        <v>20.5005958558291</v>
       </c>
       <c r="D13">
-        <v>3.556887860920842</v>
+        <v>4.902914399998591</v>
       </c>
       <c r="E13">
-        <v>40.13826669287756</v>
+        <v>39.60937102070464</v>
       </c>
       <c r="F13">
-        <v>25.12479355254085</v>
+        <v>19.75120738260546</v>
       </c>
       <c r="G13">
-        <v>2.009504005686672</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>25.50444709996768</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.677054067705446</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.80082276814489</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>9.861778209578928</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,45 +1010,48 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.10158128820876</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>18.2349110239473</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>11.75259228175803</v>
+      </c>
+      <c r="Q13">
+        <v>13.9301948745545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.36935771110903</v>
+        <v>25.32571710000784</v>
       </c>
       <c r="C14">
-        <v>19.77593092392334</v>
+        <v>20.34432400610131</v>
       </c>
       <c r="D14">
-        <v>3.542573811172715</v>
+        <v>4.870924199097884</v>
       </c>
       <c r="E14">
-        <v>39.72704075529471</v>
+        <v>39.2171135891142</v>
       </c>
       <c r="F14">
-        <v>24.88051842802208</v>
+        <v>19.60366600745147</v>
       </c>
       <c r="G14">
-        <v>2.010871025717808</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>25.28329087459533</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.645047466696815</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.78053502534698</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>9.872610953017309</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,45 +1060,48 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.13000553871173</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>18.09875772818931</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>11.75071786265604</v>
+      </c>
+      <c r="Q14">
+        <v>13.85204094343686</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.21193067455015</v>
+        <v>25.18654498206094</v>
       </c>
       <c r="C15">
-        <v>19.6728825952783</v>
+        <v>20.25589408726103</v>
       </c>
       <c r="D15">
-        <v>3.533771786796854</v>
+        <v>4.852399298300115</v>
       </c>
       <c r="E15">
-        <v>39.47433573493107</v>
+        <v>38.97573161849819</v>
       </c>
       <c r="F15">
-        <v>24.73052394456789</v>
+        <v>19.50729402239456</v>
       </c>
       <c r="G15">
-        <v>2.011709068805847</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>25.13714120251627</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.625919698355039</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.76611128666331</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>9.874236591560292</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,45 +1110,48 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.14749559824521</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>18.01554819484171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>11.75149741644099</v>
+      </c>
+      <c r="Q15">
+        <v>13.79927784598753</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.29561026853984</v>
+        <v>24.39957936914292</v>
       </c>
       <c r="C16">
-        <v>19.07356363319365</v>
+        <v>19.69272408456288</v>
       </c>
       <c r="D16">
-        <v>3.482814548733571</v>
+        <v>4.737164728575062</v>
       </c>
       <c r="E16">
-        <v>38.01310936055111</v>
+        <v>37.57744613022433</v>
       </c>
       <c r="F16">
-        <v>23.94362782851246</v>
+        <v>18.9898591877105</v>
       </c>
       <c r="G16">
-        <v>2.016524103278525</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>24.36019343984904</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.512827378979262</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.698622189824957</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>9.920449677794737</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,45 +1160,48 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.24892360045789</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>17.54157586576341</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>11.74536178066037</v>
+      </c>
+      <c r="Q16">
+        <v>13.53011270495971</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.72070984465514</v>
+        <v>23.90397963456666</v>
       </c>
       <c r="C17">
-        <v>18.69799515234109</v>
+        <v>19.34059658780762</v>
       </c>
       <c r="D17">
-        <v>3.451102957354149</v>
+        <v>4.665013556616376</v>
       </c>
       <c r="E17">
-        <v>37.10445661823945</v>
+        <v>36.70524549012745</v>
       </c>
       <c r="F17">
-        <v>23.48301701898591</v>
+        <v>18.670649461135</v>
       </c>
       <c r="G17">
-        <v>2.019491001773645</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>23.87938956886169</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4.443076571391781</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.658798926280063</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>9.951894621083115</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,45 +1210,48 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.31219923470603</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>17.25335974989521</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>11.74260086148954</v>
+      </c>
+      <c r="Q17">
+        <v>13.36650301260472</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.38530304644786</v>
+        <v>23.6248201875383</v>
       </c>
       <c r="C18">
-        <v>18.47905035823475</v>
+        <v>19.11479566609488</v>
       </c>
       <c r="D18">
-        <v>3.432701616211586</v>
+        <v>4.619860001009125</v>
       </c>
       <c r="E18">
-        <v>36.57711119459213</v>
+        <v>36.19841123384172</v>
       </c>
       <c r="F18">
-        <v>23.21772847747959</v>
+        <v>18.50208178148857</v>
       </c>
       <c r="G18">
-        <v>2.021202967964008</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>23.62928307807719</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4.401158547442073</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.64193284195325</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>9.984310655781419</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,45 +1260,48 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.3489741390014</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>17.08852383268887</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>11.73675227151785</v>
+      </c>
+      <c r="Q18">
+        <v>13.28614504056359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.27092176708846</v>
+        <v>23.52130861757437</v>
       </c>
       <c r="C19">
-        <v>18.40441463194838</v>
+        <v>19.05395015065069</v>
       </c>
       <c r="D19">
-        <v>3.426443871834083</v>
+        <v>4.606885424635177</v>
       </c>
       <c r="E19">
-        <v>36.39773227048141</v>
+        <v>36.02565601554974</v>
       </c>
       <c r="F19">
-        <v>23.12784624970653</v>
+        <v>18.43285533975729</v>
       </c>
       <c r="G19">
-        <v>2.021783615571429</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>23.52284271268822</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4.388156930032318</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.632104131413281</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>9.985248994564394</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,45 +1310,48 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.36149025628895</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>17.03287487954334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>11.73840096852168</v>
+      </c>
+      <c r="Q19">
+        <v>13.24888679096404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.78239843584876</v>
+        <v>23.95805041999739</v>
       </c>
       <c r="C20">
-        <v>18.73827759516968</v>
+        <v>19.37671730326879</v>
       </c>
       <c r="D20">
-        <v>3.454495537191821</v>
+        <v>4.672506302138056</v>
       </c>
       <c r="E20">
-        <v>37.201667285566</v>
+        <v>36.79867272929098</v>
       </c>
       <c r="F20">
-        <v>23.5320870785456</v>
+        <v>18.70591084057375</v>
       </c>
       <c r="G20">
-        <v>2.019174617930706</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>23.93289527214816</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4.450382370051958</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.663406709762106</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>9.949474456463115</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,45 +1360,48 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.30542392325421</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>17.28394382260901</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>11.74249258743711</v>
+      </c>
+      <c r="Q20">
+        <v>13.38488763825841</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.44459939829112</v>
+        <v>25.37917448944199</v>
       </c>
       <c r="C21">
-        <v>19.82519082833575</v>
+        <v>20.41224374815388</v>
       </c>
       <c r="D21">
-        <v>3.546785353566313</v>
+        <v>4.883668787209084</v>
       </c>
       <c r="E21">
-        <v>39.847996742352</v>
+        <v>39.33222242640609</v>
       </c>
       <c r="F21">
-        <v>24.9523445628292</v>
+        <v>19.63051388327687</v>
       </c>
       <c r="G21">
-        <v>2.010469356442728</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>25.31910141605349</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.655920625381998</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.780476965549207</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>9.854446387573725</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,45 +1410,48 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.12164006062465</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>18.13870995288072</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>11.75652755696608</v>
+      </c>
+      <c r="Q21">
+        <v>13.86085602382418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.48978107596357</v>
+        <v>26.2803715635377</v>
       </c>
       <c r="C22">
-        <v>20.50999714351109</v>
+        <v>21.03954769380125</v>
       </c>
       <c r="D22">
-        <v>3.605579527018719</v>
+        <v>5.01263179735285</v>
       </c>
       <c r="E22">
-        <v>41.54035480854116</v>
+        <v>40.94316764836377</v>
       </c>
       <c r="F22">
-        <v>25.95917493053298</v>
+        <v>20.24957537394983</v>
       </c>
       <c r="G22">
-        <v>2.004813381078018</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>26.24824400979987</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.787182480188671</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.869879126187918</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>9.822058082390802</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,45 +1460,48 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.00506167847011</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>18.85687950016453</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>11.76236320945425</v>
+      </c>
+      <c r="Q22">
+        <v>14.1946682924117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.93566090356409</v>
+        <v>25.81647381087116</v>
       </c>
       <c r="C23">
-        <v>20.14681293317535</v>
+        <v>20.68053763190947</v>
       </c>
       <c r="D23">
-        <v>3.574343019785856</v>
+        <v>4.940267359516126</v>
       </c>
       <c r="E23">
-        <v>40.64026133207673</v>
+        <v>40.08774400752759</v>
       </c>
       <c r="F23">
-        <v>25.42327970435672</v>
+        <v>19.93949723268953</v>
       </c>
       <c r="G23">
-        <v>2.00782982584614</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>25.78848417850519</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.715729540817485</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.828871166618891</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>9.856341567009048</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,45 +1510,48 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.06695035684414</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>18.45052964091207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>11.752558927692</v>
+      </c>
+      <c r="Q23">
+        <v>14.03298028010888</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.75452426268147</v>
+        <v>23.9558578280153</v>
       </c>
       <c r="C24">
-        <v>18.72007533170808</v>
+        <v>19.31679728865242</v>
       </c>
       <c r="D24">
-        <v>3.452962280172692</v>
+        <v>4.662567896879552</v>
       </c>
       <c r="E24">
-        <v>37.15773380797086</v>
+        <v>36.75701841549945</v>
       </c>
       <c r="F24">
-        <v>23.50990398965572</v>
+        <v>18.72277182367647</v>
       </c>
       <c r="G24">
-        <v>2.019317635414159</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>23.96716608441542</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4.444258664858872</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.672860085322069</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>9.978669467433605</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,45 +1560,48 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.30848580684202</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>17.27011407387025</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>11.73272621466565</v>
+      </c>
+      <c r="Q24">
+        <v>13.40426592857034</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.22013252131998</v>
+        <v>21.77089627282609</v>
       </c>
       <c r="C25">
-        <v>17.06902418366736</v>
+        <v>17.74684061519295</v>
       </c>
       <c r="D25">
-        <v>3.315914909287522</v>
+        <v>4.342067771269229</v>
       </c>
       <c r="E25">
-        <v>33.21902572473957</v>
+        <v>32.95516764903462</v>
       </c>
       <c r="F25">
-        <v>21.5687573508746</v>
+        <v>17.39125526902221</v>
       </c>
       <c r="G25">
-        <v>2.03192570320245</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>21.95374429991055</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4.14420767657535</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.527000628198244</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>10.15247893278617</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1610,16 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.5835138854558</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>16.0849836657675</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>11.72499375075429</v>
+      </c>
+      <c r="Q25">
+        <v>12.75064722296889</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_34/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,43 +421,49 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.04676894542832</v>
+        <v>19.8140340107089</v>
       </c>
       <c r="C2">
-        <v>16.42935056658225</v>
+        <v>16.72208024964069</v>
       </c>
       <c r="D2">
-        <v>4.077515814508895</v>
+        <v>4.162573717954743</v>
       </c>
       <c r="E2">
-        <v>29.96184337714271</v>
+        <v>29.930059883199</v>
       </c>
       <c r="F2">
-        <v>16.45632338713908</v>
+        <v>16.27634930781759</v>
       </c>
       <c r="G2">
-        <v>20.53830510774155</v>
+        <v>19.69388306312</v>
       </c>
       <c r="I2">
-        <v>3.913585001058268</v>
+        <v>3.835830446646476</v>
       </c>
       <c r="J2">
-        <v>7.455948674078476</v>
+        <v>8.201170902866302</v>
       </c>
       <c r="K2">
-        <v>10.35363558474045</v>
+        <v>10.29406624170141</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.23751449373883</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.091789484887972</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -466,48 +472,54 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>11.71624432591529</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.33790569869499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>11.82628217053572</v>
+      </c>
+      <c r="S2">
+        <v>12.23715708499188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.75956069352106</v>
+        <v>18.57268748065194</v>
       </c>
       <c r="C3">
-        <v>15.52531134603612</v>
+        <v>15.73246009915024</v>
       </c>
       <c r="D3">
-        <v>3.893951686666036</v>
+        <v>3.964416024140244</v>
       </c>
       <c r="E3">
-        <v>27.80459259024933</v>
+        <v>27.78000513870001</v>
       </c>
       <c r="F3">
-        <v>15.78809596860186</v>
+        <v>15.66239260732826</v>
       </c>
       <c r="G3">
-        <v>19.50488676552758</v>
+        <v>18.69014075346743</v>
       </c>
       <c r="I3">
-        <v>3.753239851570229</v>
+        <v>3.693023338580464</v>
       </c>
       <c r="J3">
-        <v>7.407847187566667</v>
+        <v>8.148484981748066</v>
       </c>
       <c r="K3">
-        <v>10.4818935864944</v>
+        <v>10.44056079290124</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.42874075495534</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>5.083026131064315</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -516,48 +528,54 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>11.72538237876372</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>12.04706121942293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>11.80853571805963</v>
+      </c>
+      <c r="S3">
+        <v>11.98615094941701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.92017685747314</v>
+        <v>17.76294106087604</v>
       </c>
       <c r="C4">
-        <v>14.94615492360995</v>
+        <v>15.09777259222824</v>
       </c>
       <c r="D4">
-        <v>3.776503624679727</v>
+        <v>3.837599361952409</v>
       </c>
       <c r="E4">
-        <v>26.41479008159449</v>
+        <v>26.39429062138106</v>
       </c>
       <c r="F4">
-        <v>15.37641498600383</v>
+        <v>15.28365434546291</v>
       </c>
       <c r="G4">
-        <v>18.8614461888114</v>
+        <v>18.06532028657914</v>
       </c>
       <c r="I4">
-        <v>3.652078497919896</v>
+        <v>3.603005864384075</v>
       </c>
       <c r="J4">
-        <v>7.382926109188571</v>
+        <v>8.117881545082287</v>
       </c>
       <c r="K4">
-        <v>10.56744016470202</v>
+        <v>10.5353020933069</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.54977276507785</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>5.110505683892418</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -566,48 +584,54 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>11.73438668393752</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>11.87506898108446</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>11.80127922035655</v>
+      </c>
+      <c r="S4">
+        <v>11.83743006738411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.56104265663348</v>
+        <v>17.41624417999882</v>
       </c>
       <c r="C5">
-        <v>14.71305742091377</v>
+        <v>14.84151045868064</v>
       </c>
       <c r="D5">
-        <v>3.728745137409476</v>
+        <v>3.785927774718531</v>
       </c>
       <c r="E5">
-        <v>25.83167774237769</v>
+        <v>25.81277473635825</v>
       </c>
       <c r="F5">
-        <v>15.20211999419559</v>
+        <v>15.12264690745967</v>
       </c>
       <c r="G5">
-        <v>18.5853824616794</v>
+        <v>17.79661185064494</v>
       </c>
       <c r="I5">
-        <v>3.610273813512781</v>
+        <v>3.566062918598788</v>
       </c>
       <c r="J5">
-        <v>7.371957539602664</v>
+        <v>8.104001387428134</v>
       </c>
       <c r="K5">
-        <v>10.59956642585392</v>
+        <v>10.57084554963664</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>10.59624299701938</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>5.127267535215497</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -616,48 +640,54 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>11.74024971494404</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>11.80163655743909</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>11.8006235603279</v>
+      </c>
+      <c r="S5">
+        <v>11.77318754212214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.49487753403015</v>
+        <v>17.35214245802142</v>
       </c>
       <c r="C6">
-        <v>14.6848602361686</v>
+        <v>14.80966434070933</v>
       </c>
       <c r="D6">
-        <v>3.722288581031667</v>
+        <v>3.778818604582296</v>
       </c>
       <c r="E6">
-        <v>25.73374724130185</v>
+        <v>25.71510855453138</v>
       </c>
       <c r="F6">
-        <v>15.165311476841</v>
+        <v>15.08804183901638</v>
       </c>
       <c r="G6">
-        <v>18.52477735666249</v>
+        <v>17.73688476561857</v>
       </c>
       <c r="I6">
-        <v>3.603589937257654</v>
+        <v>3.56049966308962</v>
       </c>
       <c r="J6">
-        <v>7.367830765428026</v>
+        <v>8.099471420957782</v>
       </c>
       <c r="K6">
-        <v>10.59967542444645</v>
+        <v>10.57167043627165</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10.59941321945635</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>5.127471398334372</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -666,48 +696,54 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>11.74294123740636</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>11.78338259094537</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>11.80228813802432</v>
+      </c>
+      <c r="S6">
+        <v>11.75647771014871</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.89994837693169</v>
+        <v>17.73742494500495</v>
       </c>
       <c r="C7">
-        <v>14.97215790777952</v>
+        <v>15.1154309867936</v>
       </c>
       <c r="D7">
-        <v>3.780020712339585</v>
+        <v>3.844042527325907</v>
       </c>
       <c r="E7">
-        <v>26.40674478075854</v>
+        <v>26.38605543852065</v>
       </c>
       <c r="F7">
-        <v>15.35286057037281</v>
+        <v>15.24586948726</v>
       </c>
       <c r="G7">
-        <v>18.81836563414144</v>
+        <v>18.13212569841591</v>
       </c>
       <c r="I7">
-        <v>3.652105564765858</v>
+        <v>3.603376877792276</v>
       </c>
       <c r="J7">
-        <v>7.376306300806696</v>
+        <v>8.066190943823388</v>
       </c>
       <c r="K7">
-        <v>10.55328190196248</v>
+        <v>10.51717951544584</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.53414437618353</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>5.098783562265574</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -716,48 +752,54 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>11.73908313869783</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>11.85735525806304</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>11.80775342540023</v>
+      </c>
+      <c r="S7">
+        <v>11.80875409798238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.5942054759526</v>
+        <v>19.36035826238584</v>
       </c>
       <c r="C8">
-        <v>16.15883549796745</v>
+        <v>16.39652069127169</v>
       </c>
       <c r="D8">
-        <v>4.020473611488384</v>
+        <v>4.10999607963931</v>
       </c>
       <c r="E8">
-        <v>29.23104329566917</v>
+        <v>29.20106286454984</v>
       </c>
       <c r="F8">
-        <v>16.19963020885859</v>
+        <v>15.99262847036478</v>
       </c>
       <c r="G8">
-        <v>20.13506683220665</v>
+        <v>19.6448308080392</v>
       </c>
       <c r="I8">
-        <v>3.859385523275481</v>
+        <v>3.786994166330692</v>
       </c>
       <c r="J8">
-        <v>7.42989845985195</v>
+        <v>8.026307525007859</v>
       </c>
       <c r="K8">
-        <v>10.37687686895091</v>
+        <v>10.30982695995155</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.27607252301233</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>5.054932297252561</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -766,48 +808,54 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>11.72507374174335</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>12.21475991386147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>11.83199372772328</v>
+      </c>
+      <c r="S8">
+        <v>12.09182183350884</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.55355290774927</v>
+        <v>22.21103793060798</v>
       </c>
       <c r="C9">
-        <v>18.24476251921329</v>
+        <v>18.6743137671784</v>
       </c>
       <c r="D9">
-        <v>4.446209173056231</v>
+        <v>4.571336599191396</v>
       </c>
       <c r="E9">
-        <v>34.26567104776513</v>
+        <v>34.21503210352677</v>
       </c>
       <c r="F9">
-        <v>17.87506025227174</v>
+        <v>17.52423088564198</v>
       </c>
       <c r="G9">
-        <v>22.69764618913965</v>
+        <v>22.18611946115326</v>
       </c>
       <c r="I9">
-        <v>4.244899128415517</v>
+        <v>4.129558144849225</v>
       </c>
       <c r="J9">
-        <v>7.584527613594375</v>
+        <v>8.136415371418622</v>
       </c>
       <c r="K9">
-        <v>10.11576420887411</v>
+        <v>9.98563182864706</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.831862868202942</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>5.264427194394358</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -816,48 +864,54 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>11.71660526273545</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>12.99500854835422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>11.89368502830544</v>
+      </c>
+      <c r="S9">
+        <v>12.75923283858701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.4876857399625</v>
+        <v>24.04774761662236</v>
       </c>
       <c r="C10">
-        <v>19.66937762387156</v>
+        <v>20.18524716415774</v>
       </c>
       <c r="D10">
-        <v>4.735792686973982</v>
+        <v>4.899241791329023</v>
       </c>
       <c r="E10">
-        <v>37.67709858220457</v>
+        <v>37.6068608114153</v>
       </c>
       <c r="F10">
-        <v>19.07379140841475</v>
+        <v>18.54857218138443</v>
       </c>
       <c r="G10">
-        <v>24.49943393675731</v>
+        <v>24.4858138003439</v>
       </c>
       <c r="I10">
-        <v>4.517578600284078</v>
+        <v>4.370292115290658</v>
       </c>
       <c r="J10">
-        <v>7.720178705183467</v>
+        <v>7.974722801322232</v>
       </c>
       <c r="K10">
-        <v>9.958639564405885</v>
+        <v>9.742643488966838</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.501607887571005</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>5.536585593465857</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -866,48 +920,54 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>11.7311588871541</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>13.58922675813886</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>11.97212490009598</v>
+      </c>
+      <c r="S10">
+        <v>13.20862397669943</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.29920019313271</v>
+        <v>24.77576965248474</v>
       </c>
       <c r="C11">
-        <v>20.32736016069109</v>
+        <v>20.81273805015875</v>
       </c>
       <c r="D11">
-        <v>4.867375803778611</v>
+        <v>5.072495328631129</v>
       </c>
       <c r="E11">
-        <v>39.17101473391876</v>
+        <v>39.08827728949578</v>
       </c>
       <c r="F11">
-        <v>19.5853066595041</v>
+        <v>18.86138997698344</v>
       </c>
       <c r="G11">
-        <v>25.25547132619416</v>
+        <v>26.36202824788804</v>
       </c>
       <c r="I11">
-        <v>4.64137989459086</v>
+        <v>4.477421590852975</v>
       </c>
       <c r="J11">
-        <v>7.777791088774381</v>
+        <v>7.478600430038821</v>
       </c>
       <c r="K11">
-        <v>9.872958433320136</v>
+        <v>9.568071905906116</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.316431062629601</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.61451648581746</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -916,48 +976,54 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>11.75084458574302</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>13.84199643083044</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.04218032141825</v>
+      </c>
+      <c r="S11">
+        <v>13.2935450397374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.60948739316346</v>
+        <v>25.05009960980964</v>
       </c>
       <c r="C12">
-        <v>20.55289671413194</v>
+        <v>21.01841634572456</v>
       </c>
       <c r="D12">
-        <v>4.913375685835986</v>
+        <v>5.137088365516288</v>
       </c>
       <c r="E12">
-        <v>39.72918690779316</v>
+        <v>39.6412159179167</v>
       </c>
       <c r="F12">
-        <v>19.79294309891714</v>
+        <v>18.97988264401538</v>
       </c>
       <c r="G12">
-        <v>25.56604249369837</v>
+        <v>27.18961586871307</v>
       </c>
       <c r="I12">
-        <v>4.687119578292461</v>
+        <v>4.515798384106165</v>
       </c>
       <c r="J12">
-        <v>7.805834713772534</v>
+        <v>7.25341875657155</v>
       </c>
       <c r="K12">
-        <v>9.855411647413801</v>
+        <v>9.508894279006851</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.251198418192546</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>5.65350925287358</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -966,48 +1032,54 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>11.75430777684966</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.95124925598268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.0673188520303</v>
+      </c>
+      <c r="S12">
+        <v>13.32676902525811</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.54495576329541</v>
+        <v>24.99351039193897</v>
       </c>
       <c r="C13">
-        <v>20.5005958558291</v>
+        <v>20.9706862897307</v>
       </c>
       <c r="D13">
-        <v>4.902914399998591</v>
+        <v>5.122492412682013</v>
       </c>
       <c r="E13">
-        <v>39.60937102070464</v>
+        <v>39.52254540607743</v>
       </c>
       <c r="F13">
-        <v>19.75120738260546</v>
+        <v>18.95796244511103</v>
       </c>
       <c r="G13">
-        <v>25.50444709996768</v>
+        <v>27.01256250763269</v>
       </c>
       <c r="I13">
-        <v>4.677054067705446</v>
+        <v>4.507174629902766</v>
       </c>
       <c r="J13">
-        <v>7.80082276814489</v>
+        <v>7.304426660712096</v>
       </c>
       <c r="K13">
-        <v>9.861778209578928</v>
+        <v>9.524312984049637</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.266669616304641</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.647789586651425</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1016,48 +1088,54 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>11.75259228175803</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>13.9301948745545</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.06075563476556</v>
+      </c>
+      <c r="S13">
+        <v>13.32261969590969</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.32571710000784</v>
+        <v>24.79941784687894</v>
       </c>
       <c r="C14">
-        <v>20.34432400610131</v>
+        <v>20.82820142684437</v>
       </c>
       <c r="D14">
-        <v>4.870924199097884</v>
+        <v>5.077515033967527</v>
       </c>
       <c r="E14">
-        <v>39.2171135891142</v>
+        <v>39.1339539207947</v>
       </c>
       <c r="F14">
-        <v>19.60366600745147</v>
+        <v>18.87269339274518</v>
       </c>
       <c r="G14">
-        <v>25.28329087459533</v>
+        <v>26.43052940289726</v>
       </c>
       <c r="I14">
-        <v>4.645047466696815</v>
+        <v>4.480421645471313</v>
       </c>
       <c r="J14">
-        <v>7.78053502534698</v>
+        <v>7.461216870906223</v>
       </c>
       <c r="K14">
-        <v>9.872610953017309</v>
+        <v>9.564346640342251</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.31168037962661</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.618864357223622</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1066,48 +1144,54 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>11.75071786265604</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>13.85204094343686</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.04375841695227</v>
+      </c>
+      <c r="S14">
+        <v>13.29757412990792</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.18654498206094</v>
+        <v>24.67507009273741</v>
       </c>
       <c r="C15">
-        <v>20.25589408726103</v>
+        <v>20.74730603837298</v>
       </c>
       <c r="D15">
-        <v>4.852399298300115</v>
+        <v>5.051410266540895</v>
       </c>
       <c r="E15">
-        <v>38.97573161849819</v>
+        <v>38.89476047042738</v>
       </c>
       <c r="F15">
-        <v>19.50729402239456</v>
+        <v>18.81265752609139</v>
       </c>
       <c r="G15">
-        <v>25.13714120251627</v>
+        <v>26.07537706376472</v>
       </c>
       <c r="I15">
-        <v>4.625919698355039</v>
+        <v>4.464796894363082</v>
       </c>
       <c r="J15">
-        <v>7.76611128666331</v>
+        <v>7.550368927393282</v>
       </c>
       <c r="K15">
-        <v>9.874236591560292</v>
+        <v>9.583363577214898</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.336276303485649</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.595749699973219</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1116,48 +1200,54 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>11.75149741644099</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>13.79927784598753</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.03574103042656</v>
+      </c>
+      <c r="S15">
+        <v>13.27576801836235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.39957936914292</v>
+        <v>23.96437093857416</v>
       </c>
       <c r="C16">
-        <v>19.69272408456288</v>
+        <v>20.21059062492814</v>
       </c>
       <c r="D16">
-        <v>4.737164728575062</v>
+        <v>4.898318547593047</v>
       </c>
       <c r="E16">
-        <v>37.57744613022433</v>
+        <v>37.50800894691098</v>
       </c>
       <c r="F16">
-        <v>18.9898591877105</v>
+        <v>18.47571216810109</v>
       </c>
       <c r="G16">
-        <v>24.36019343984904</v>
+        <v>24.28651564989174</v>
       </c>
       <c r="I16">
-        <v>4.512827378979262</v>
+        <v>4.369089947701485</v>
       </c>
       <c r="J16">
-        <v>7.698622189824957</v>
+        <v>7.985090260170755</v>
       </c>
       <c r="K16">
-        <v>9.920449677794737</v>
+        <v>9.712629584075106</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.489575766572459</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.489393412330976</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1166,48 +1256,54 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>11.74536178066037</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>13.53011270495971</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>11.98410501062996</v>
+      </c>
+      <c r="S16">
+        <v>13.15914658655959</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.90397963456666</v>
+        <v>23.50768151642889</v>
       </c>
       <c r="C17">
-        <v>19.34059658780762</v>
+        <v>19.86025505818432</v>
       </c>
       <c r="D17">
-        <v>4.665013556616376</v>
+        <v>4.807936267660877</v>
       </c>
       <c r="E17">
-        <v>36.70524549012745</v>
+        <v>36.64204231982364</v>
       </c>
       <c r="F17">
-        <v>18.670649461135</v>
+        <v>18.2425790270045</v>
       </c>
       <c r="G17">
-        <v>23.87938956886169</v>
+        <v>23.38008831898473</v>
       </c>
       <c r="I17">
-        <v>4.443076571391781</v>
+        <v>4.309359326198556</v>
       </c>
       <c r="J17">
-        <v>7.658798926280063</v>
+        <v>8.168296133189433</v>
       </c>
       <c r="K17">
-        <v>9.951894621083115</v>
+        <v>9.783347491756265</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.579370347377726</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.420135230019549</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1216,48 +1312,54 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>11.74260086148954</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>13.36650301260472</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>11.95809463721403</v>
+      </c>
+      <c r="S17">
+        <v>13.06755146515312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.6248201875383</v>
+        <v>23.24802544854468</v>
       </c>
       <c r="C18">
-        <v>19.11479566609488</v>
+        <v>19.62975101571885</v>
       </c>
       <c r="D18">
-        <v>4.619860001009125</v>
+        <v>4.754111773168583</v>
       </c>
       <c r="E18">
-        <v>36.19841123384172</v>
+        <v>36.13848317539398</v>
       </c>
       <c r="F18">
-        <v>18.50208178148857</v>
+        <v>18.11450781903645</v>
       </c>
       <c r="G18">
-        <v>23.62928307807719</v>
+        <v>22.95198560928444</v>
       </c>
       <c r="I18">
-        <v>4.401158547442073</v>
+        <v>4.272037390855748</v>
       </c>
       <c r="J18">
-        <v>7.64193284195325</v>
+        <v>8.246684043833413</v>
       </c>
       <c r="K18">
-        <v>9.984310655781419</v>
+        <v>9.833401821797638</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.636942741326509</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.391687944092467</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1266,48 +1368,54 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>11.73675227151785</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.28614504056359</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>11.94029543318067</v>
+      </c>
+      <c r="S18">
+        <v>13.02073732348465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.52130861757437</v>
+        <v>23.15058728435723</v>
       </c>
       <c r="C19">
-        <v>19.05395015065069</v>
+        <v>19.56668114331068</v>
       </c>
       <c r="D19">
-        <v>4.606885424635177</v>
+        <v>4.738516037863947</v>
       </c>
       <c r="E19">
-        <v>36.02565601554974</v>
+        <v>35.9667987771842</v>
       </c>
       <c r="F19">
-        <v>18.43285533975729</v>
+        <v>18.05745984202701</v>
       </c>
       <c r="G19">
-        <v>23.52284271268822</v>
+        <v>22.79612961735946</v>
       </c>
       <c r="I19">
-        <v>4.388156930032318</v>
+        <v>4.261238302680547</v>
       </c>
       <c r="J19">
-        <v>7.632104131413281</v>
+        <v>8.263859582518212</v>
       </c>
       <c r="K19">
-        <v>9.985248994564394</v>
+        <v>9.840338727701472</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.650330925264539</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.372284134185318</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1316,48 +1424,54 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>11.73840096852168</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.24888679096404</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>11.93831033855938</v>
+      </c>
+      <c r="S19">
+        <v>12.99360280686389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.95805041999739</v>
+        <v>23.55791424915995</v>
       </c>
       <c r="C20">
-        <v>19.37671730326879</v>
+        <v>19.89670978019926</v>
       </c>
       <c r="D20">
-        <v>4.672506302138056</v>
+        <v>4.817180478854247</v>
       </c>
       <c r="E20">
-        <v>36.79867272929098</v>
+        <v>36.7348358040889</v>
       </c>
       <c r="F20">
-        <v>18.70591084057375</v>
+        <v>18.26961018462629</v>
       </c>
       <c r="G20">
-        <v>23.93289527214816</v>
+        <v>23.47179782859111</v>
       </c>
       <c r="I20">
-        <v>4.450382370051958</v>
+        <v>4.315551601617875</v>
       </c>
       <c r="J20">
-        <v>7.663406709762106</v>
+        <v>8.15247238126558</v>
       </c>
       <c r="K20">
-        <v>9.949474456463115</v>
+        <v>9.777097642259781</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.570561444652224</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>5.428613186875553</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1366,48 +1480,54 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>11.74249258743711</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>13.38488763825841</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>11.96027695213907</v>
+      </c>
+      <c r="S20">
+        <v>13.07906922846442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.37917448944199</v>
+        <v>24.83101823051674</v>
       </c>
       <c r="C21">
-        <v>20.41224374815388</v>
+        <v>20.86856176379801</v>
       </c>
       <c r="D21">
-        <v>4.883668787209084</v>
+        <v>5.102901328630139</v>
       </c>
       <c r="E21">
-        <v>39.33222242640609</v>
+        <v>39.24710560666035</v>
       </c>
       <c r="F21">
-        <v>19.63051388327687</v>
+        <v>18.83845284903417</v>
       </c>
       <c r="G21">
-        <v>25.31910141605349</v>
+        <v>26.87519179210534</v>
       </c>
       <c r="I21">
-        <v>4.655920625381998</v>
+        <v>4.489374531592473</v>
       </c>
       <c r="J21">
-        <v>7.780476965549207</v>
+        <v>7.270763294499096</v>
       </c>
       <c r="K21">
-        <v>9.854446387573725</v>
+        <v>9.522029455817551</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.281556549847549</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>5.595315524961227</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1416,48 +1536,54 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>11.75652755696608</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>13.86085602382418</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.06151551053039</v>
+      </c>
+      <c r="S21">
+        <v>13.2548342971096</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.2803715635377</v>
+        <v>25.63415817045135</v>
       </c>
       <c r="C22">
-        <v>21.03954769380125</v>
+        <v>21.44734009613605</v>
       </c>
       <c r="D22">
-        <v>5.01263179735285</v>
+        <v>5.28233032834651</v>
       </c>
       <c r="E22">
-        <v>40.94316764836377</v>
+        <v>40.84281785136972</v>
       </c>
       <c r="F22">
-        <v>20.24957537394983</v>
+        <v>19.21547336276138</v>
       </c>
       <c r="G22">
-        <v>26.24824400979987</v>
+        <v>29.17306994040958</v>
       </c>
       <c r="I22">
-        <v>4.787182480188671</v>
+        <v>4.599089020172312</v>
       </c>
       <c r="J22">
-        <v>7.869879126187918</v>
+        <v>6.699513914410561</v>
       </c>
       <c r="K22">
-        <v>9.822058082390802</v>
+        <v>9.37045325683337</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.10501248474066</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5.734742127229057</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1466,48 +1592,54 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>11.76236320945425</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>14.1946682924117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.12837647091846</v>
+      </c>
+      <c r="S22">
+        <v>13.38037832497554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.81647381087116</v>
+        <v>25.23269323122645</v>
       </c>
       <c r="C23">
-        <v>20.68053763190947</v>
+        <v>21.13082946462597</v>
       </c>
       <c r="D23">
-        <v>4.940267359516126</v>
+        <v>5.176747844627716</v>
       </c>
       <c r="E23">
-        <v>40.08774400752759</v>
+        <v>39.99624418959946</v>
       </c>
       <c r="F23">
-        <v>19.93949723268953</v>
+        <v>19.06502238705275</v>
       </c>
       <c r="G23">
-        <v>25.78848417850519</v>
+        <v>27.77117222297886</v>
       </c>
       <c r="I23">
-        <v>4.715729540817485</v>
+        <v>4.538916445584433</v>
       </c>
       <c r="J23">
-        <v>7.828871166618891</v>
+        <v>7.101590088834674</v>
       </c>
       <c r="K23">
-        <v>9.856341567009048</v>
+        <v>9.479840996464469</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.214239130927112</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.688881525231518</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1516,48 +1648,54 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>11.752558927692</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>14.03298028010888</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.08015071461871</v>
+      </c>
+      <c r="S23">
+        <v>13.35583674623427</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.9558578280153</v>
+        <v>23.55754147170871</v>
       </c>
       <c r="C24">
-        <v>19.31679728865242</v>
+        <v>19.83587948399991</v>
       </c>
       <c r="D24">
-        <v>4.662567896879552</v>
+        <v>4.806430768758641</v>
       </c>
       <c r="E24">
-        <v>36.75701841549945</v>
+        <v>36.69343780301658</v>
       </c>
       <c r="F24">
-        <v>18.72277182367647</v>
+        <v>18.29020245864181</v>
       </c>
       <c r="G24">
-        <v>23.96716608441542</v>
+        <v>23.48895138413296</v>
       </c>
       <c r="I24">
-        <v>4.444258664858872</v>
+        <v>4.308162536842237</v>
       </c>
       <c r="J24">
-        <v>7.672860085322069</v>
+        <v>8.17010963428989</v>
       </c>
       <c r="K24">
-        <v>9.978669467433605</v>
+        <v>9.806060451589751</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.590286196904906</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>5.451333651977888</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1566,48 +1704,54 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>11.73272621466565</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>13.40426592857034</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>11.94905681810183</v>
+      </c>
+      <c r="S24">
+        <v>13.10134331869859</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.77089627282609</v>
+        <v>21.46298584155812</v>
       </c>
       <c r="C25">
-        <v>17.74684061519295</v>
+        <v>18.138619329236</v>
       </c>
       <c r="D25">
-        <v>4.342067771269229</v>
+        <v>4.454191116441043</v>
       </c>
       <c r="E25">
-        <v>32.95516764903462</v>
+        <v>32.91092425186189</v>
       </c>
       <c r="F25">
-        <v>17.39125526902221</v>
+        <v>17.09767688023142</v>
       </c>
       <c r="G25">
-        <v>21.95374429991055</v>
+        <v>21.3113321753146</v>
       </c>
       <c r="I25">
-        <v>4.14420767657535</v>
+        <v>4.042274423297304</v>
       </c>
       <c r="J25">
-        <v>7.527000628198244</v>
+        <v>8.157106749602058</v>
       </c>
       <c r="K25">
-        <v>10.15247893278617</v>
+        <v>10.04972603312618</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9.936417230639352</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>5.161856211456926</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1616,10 +1760,16 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>11.72499375075429</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>12.75064722296889</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.88063920097247</v>
+      </c>
+      <c r="S25">
+        <v>12.56134635713871</v>
       </c>
     </row>
   </sheetData>
